--- a/TF_DataMapping/TF_DATE_MAPPING.xlsx
+++ b/TF_DataMapping/TF_DATE_MAPPING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\TF_DataMapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B93950C-0F01-47AD-8F07-AA2BADD4B73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7928F922-AEAB-4CFB-9A1F-C03CFEB22F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1737,7 +1737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1"/>
@@ -1747,7 +1747,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -2032,7 +2031,7 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,7 +2332,7 @@
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" t="s">
         <v>73</v>
       </c>
       <c r="C32" t="s">
